--- a/_database/references/industry.xlsx
+++ b/_database/references/industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paruta/2050-Calculators/EUcalc/_database/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echiarot/Documents/GitHub/2050-Calculators/PathwayCalc/_database/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A8109-CDF1-E14E-A1FC-43C5F5153E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3BBFE-1B73-6842-91B4-90C448A2316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="760" windowWidth="28120" windowHeight="16440" activeTab="3" xr2:uid="{5B250ED2-188B-794B-883D-D456F39A5638}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="28120" windowHeight="16300" activeTab="4" xr2:uid="{5B250ED2-188B-794B-883D-D456F39A5638}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -4363,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B61FC-B874-B24B-BB68-1643CFA1893F}">
   <dimension ref="A1:K572"/>
   <sheetViews>
-    <sheetView topLeftCell="A543" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="A529" sqref="A529:A572"/>
     </sheetView>
   </sheetViews>
@@ -4378,7 +4378,7 @@
     <col min="7" max="7" width="8.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -24982,7 +24982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EB94E9-F8B8-1B46-A6A8-E958940C91D4}">
   <dimension ref="A1:C499"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="B461" sqref="B461"/>
     </sheetView>
   </sheetViews>
@@ -30495,7 +30495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E56CE-749E-944F-981F-DA99AA08353D}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -30776,7 +30776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19268EC7-3F22-334A-A4DC-3C6450D28792}">
   <dimension ref="A1:E572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -39185,7 +39185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB8E67C-FE85-7B4D-93B2-E95D46457F48}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
